--- a/poc/social-buzz/doc/TV프로그램_20110904.xlsx
+++ b/poc/social-buzz/doc/TV프로그램_20110904.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="225" windowWidth="18315" windowHeight="8160"/>
+    <workbookView xWindow="480" yWindow="225" windowWidth="18315" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로그램" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">프로그램!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="1077">
   <si>
     <t>program_id</t>
   </si>
@@ -3615,6 +3615,10 @@
   </si>
   <si>
     <t>TUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3765,7 +3769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3814,6 +3818,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3850,7 +3860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3958,6 +3968,21 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4264,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
@@ -6566,11 +6591,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6579,11 +6604,11 @@
     <col min="2" max="2" width="14.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="15" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="5" max="6" width="14.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>259</v>
       </c>
@@ -6599,10 +6624,13 @@
       <c r="E1" s="11" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="11" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="B2" s="15">
         <v>20110815</v>
@@ -6614,10 +6642,13 @@
         <v>265</v>
       </c>
       <c r="E2" s="12">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>180</v>
       </c>
@@ -6633,10 +6664,13 @@
       <c r="E3" s="12">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B4" s="15">
         <v>20110815</v>
@@ -6648,12 +6682,15 @@
         <v>265</v>
       </c>
       <c r="E4" s="12">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.187</v>
+      </c>
+      <c r="F4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="B5" s="15">
         <v>20110815</v>
@@ -6664,13 +6701,16 @@
       <c r="D5" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E5" s="16">
-        <v>5.7499999999999996E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="12">
+        <v>0.182</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B6" s="15">
         <v>20110815</v>
@@ -6682,12 +6722,15 @@
         <v>265</v>
       </c>
       <c r="E6" s="12">
-        <v>0.22700000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="B7" s="15">
         <v>20110815</v>
@@ -6698,13 +6741,16 @@
       <c r="D7" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="16">
-        <v>0.1055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="12">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F7" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B8" s="15">
         <v>20110815</v>
@@ -6715,13 +6761,16 @@
       <c r="D8" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="16">
-        <v>5.45E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="12">
+        <v>0.159</v>
+      </c>
+      <c r="F8" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="B9" s="15">
         <v>20110815</v>
@@ -6732,13 +6781,16 @@
       <c r="D9" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E9" s="16">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="12">
+        <v>0.156</v>
+      </c>
+      <c r="F9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B10" s="15">
         <v>20110815</v>
@@ -6750,12 +6802,15 @@
         <v>265</v>
       </c>
       <c r="E10" s="12">
-        <v>8.3999999999999991E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.153</v>
+      </c>
+      <c r="F10" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B11" s="15">
         <v>20110815</v>
@@ -6767,12 +6822,15 @@
         <v>265</v>
       </c>
       <c r="E11" s="12">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="B12" s="15">
         <v>20110815</v>
@@ -6784,12 +6842,15 @@
         <v>265</v>
       </c>
       <c r="E12" s="12">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F12" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B13" s="15">
         <v>20110815</v>
@@ -6801,12 +6862,15 @@
         <v>265</v>
       </c>
       <c r="E13" s="12">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="B14" s="15">
         <v>20110815</v>
@@ -6818,12 +6882,15 @@
         <v>265</v>
       </c>
       <c r="E14" s="12">
-        <v>0.159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F14" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="B15" s="15">
         <v>20110815</v>
@@ -6835,12 +6902,15 @@
         <v>265</v>
       </c>
       <c r="E15" s="12">
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F15" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="B16" s="15">
         <v>20110815</v>
@@ -6851,13 +6921,16 @@
       <c r="D16" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="12">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="F16" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="B17" s="15">
         <v>20110815</v>
@@ -6869,12 +6942,15 @@
         <v>265</v>
       </c>
       <c r="E17" s="12">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.111</v>
+      </c>
+      <c r="F17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B18" s="15">
         <v>20110815</v>
@@ -6886,12 +6962,15 @@
         <v>265</v>
       </c>
       <c r="E18" s="12">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.111</v>
+      </c>
+      <c r="F18" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B19" s="15">
         <v>20110815</v>
@@ -6903,12 +6982,15 @@
         <v>265</v>
       </c>
       <c r="E19" s="12">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.108</v>
+      </c>
+      <c r="F19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="B20" s="15">
         <v>20110815</v>
@@ -6919,13 +7001,16 @@
       <c r="D20" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="12">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="16">
+        <v>0.1055</v>
+      </c>
+      <c r="F20" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="B21" s="15">
         <v>20110815</v>
@@ -6937,12 +7022,15 @@
         <v>265</v>
       </c>
       <c r="E21" s="12">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F21" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B22" s="15">
         <v>20110815</v>
@@ -6954,12 +7042,15 @@
         <v>265</v>
       </c>
       <c r="E22" s="12">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" s="15">
         <v>20110815</v>
@@ -6971,12 +7062,15 @@
         <v>265</v>
       </c>
       <c r="E23" s="12">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F23" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B24" s="15">
         <v>20110815</v>
@@ -6988,12 +7082,15 @@
         <v>265</v>
       </c>
       <c r="E24" s="12">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F24" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="B25" s="15">
         <v>20110815</v>
@@ -7005,12 +7102,15 @@
         <v>265</v>
       </c>
       <c r="E25" s="12">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8.3999999999999991E-2</v>
+      </c>
+      <c r="F25" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B26" s="15">
         <v>20110815</v>
@@ -7021,13 +7121,16 @@
       <c r="D26" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E26" s="12">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="16">
+        <v>5.7499999999999996E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B27" s="15">
         <v>20110815</v>
@@ -7038,13 +7141,16 @@
       <c r="D27" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="E27" s="12">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="16">
+        <v>5.45E-2</v>
+      </c>
+      <c r="F27" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="B28" s="18">
         <v>20110822</v>
@@ -7056,12 +7162,15 @@
         <v>265</v>
       </c>
       <c r="E28" s="17">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.222</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B29" s="18">
         <v>20110822</v>
@@ -7072,13 +7181,16 @@
       <c r="D29" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="17">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="F29" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B30" s="18">
         <v>20110822</v>
@@ -7090,12 +7202,15 @@
         <v>265</v>
       </c>
       <c r="E30" s="17">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F30" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B31" s="18">
         <v>20110822</v>
@@ -7106,13 +7221,16 @@
       <c r="D31" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E31" s="19">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="17">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B32" s="18">
         <v>20110822</v>
@@ -7123,13 +7241,16 @@
       <c r="D32" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E32" s="19">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="17">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F32" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B33" s="18">
         <v>20110822</v>
@@ -7140,13 +7261,16 @@
       <c r="D33" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E33" s="19">
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="17">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F33" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="B34" s="18">
         <v>20110822</v>
@@ -7157,13 +7281,16 @@
       <c r="D34" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E34" s="19">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="17">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F34" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="B35" s="18">
         <v>20110822</v>
@@ -7174,13 +7301,16 @@
       <c r="D35" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E35" s="19">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="17">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F35" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="B36" s="18">
         <v>20110822</v>
@@ -7192,12 +7322,15 @@
         <v>265</v>
       </c>
       <c r="E36" s="17">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.161</v>
+      </c>
+      <c r="F36" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="B37" s="18">
         <v>20110822</v>
@@ -7209,12 +7342,15 @@
         <v>265</v>
       </c>
       <c r="E37" s="17">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F37" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B38" s="18">
         <v>20110822</v>
@@ -7226,12 +7362,15 @@
         <v>265</v>
       </c>
       <c r="E38" s="17">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F38" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B39" s="18">
         <v>20110822</v>
@@ -7243,12 +7382,15 @@
         <v>265</v>
       </c>
       <c r="E39" s="17">
-        <v>0.14799999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F39" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B40" s="18">
         <v>20110822</v>
@@ -7259,13 +7401,16 @@
       <c r="D40" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E40" s="17">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="19">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F40" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B41" s="18">
         <v>20110822</v>
@@ -7277,12 +7422,15 @@
         <v>265</v>
       </c>
       <c r="E41" s="17">
-        <v>0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F41" s="36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="B42" s="18">
         <v>20110822</v>
@@ -7294,12 +7442,15 @@
         <v>265</v>
       </c>
       <c r="E42" s="17">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.121</v>
+      </c>
+      <c r="F42" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="B43" s="18">
         <v>20110822</v>
@@ -7311,12 +7462,15 @@
         <v>265</v>
       </c>
       <c r="E43" s="17">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.121</v>
+      </c>
+      <c r="F43" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="B44" s="18">
         <v>20110822</v>
@@ -7327,13 +7481,16 @@
       <c r="D44" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E44" s="17">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="19">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F44" s="36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="B45" s="18">
         <v>20110822</v>
@@ -7345,12 +7502,15 @@
         <v>265</v>
       </c>
       <c r="E45" s="17">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.112</v>
+      </c>
+      <c r="F45" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="B46" s="18">
         <v>20110822</v>
@@ -7362,12 +7522,15 @@
         <v>265</v>
       </c>
       <c r="E46" s="17">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F46" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B47" s="18">
         <v>20110822</v>
@@ -7379,12 +7542,15 @@
         <v>265</v>
       </c>
       <c r="E47" s="17">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F47" s="36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B48" s="18">
         <v>20110822</v>
@@ -7396,12 +7562,15 @@
         <v>265</v>
       </c>
       <c r="E48" s="17">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F48" s="17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B49" s="18">
         <v>20110822</v>
@@ -7412,13 +7581,16 @@
       <c r="D49" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E49" s="17">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="F49" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c r="B50" s="18">
         <v>20110822</v>
@@ -7430,10 +7602,13 @@
         <v>265</v>
       </c>
       <c r="E50" s="17">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F50" s="36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>154</v>
       </c>
@@ -7449,10 +7624,13 @@
       <c r="E51" s="17">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B52" s="18">
         <v>20110822</v>
@@ -7463,11 +7641,418 @@
       <c r="D52" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E52" s="17">
-        <v>8.2000000000000003E-2</v>
-      </c>
+      <c r="E52" s="19">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F52" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C53" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C54" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C55" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C56" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C57" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" s="37"/>
+      <c r="F57" s="40"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C58" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C59" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C60" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E60" s="37"/>
+      <c r="F60" s="40"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C61" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C62" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C63" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E63" s="37"/>
+      <c r="F63" s="40"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C64" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C65" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E65" s="39"/>
+      <c r="F65" s="37"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C66" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" s="37"/>
+      <c r="F66" s="40"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C67" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C68" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C69" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E69" s="39"/>
+      <c r="F69" s="40"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C70" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C71" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C72" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" s="37"/>
+      <c r="F72" s="40"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C73" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C74" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E74" s="39"/>
+      <c r="F74" s="37"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C75" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E75" s="37"/>
+      <c r="F75" s="40"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C76" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="38">
+        <v>20110905</v>
+      </c>
+      <c r="C77" s="38">
+        <v>20110911</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E77" s="39"/>
+      <c r="F77" s="37"/>
     </row>
   </sheetData>
+  <sortState ref="A2:F52">
+    <sortCondition ref="B2:B52"/>
+    <sortCondition descending="1" ref="E2:E52"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
